--- a/biology/Médecine/Jean_de_Muralt/Jean_de_Muralt.xlsx
+++ b/biology/Médecine/Jean_de_Muralt/Jean_de_Muralt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean de Muralt, né en 1645 et mort en 1733[1], médecin suisse de Zurich, descendait d'une famille noble, originaire de Locarno. Ses ancêtres avaient été obligés de quitter leur patrie en 1555. On croit qu'ils étaient de la même famille que François Muralto, gentilhomme de Côme, qui écrivit en latin les Annales de sa patrie, ouvrage curieux pour les événements du XVIe siècle. (Voir les Uomini illustri della Comasca, par le comte de Giovio, p. 152 et 403).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean de Muralt, né en 1645 et mort en 1733, médecin suisse de Zurich, descendait d'une famille noble, originaire de Locarno. Ses ancêtres avaient été obligés de quitter leur patrie en 1555. On croit qu'ils étaient de la même famille que François Muralto, gentilhomme de Côme, qui écrivit en latin les Annales de sa patrie, ouvrage curieux pour les événements du XVIe siècle. (Voir les Uomini illustri della Comasca, par le comte de Giovio, p. 152 et 403).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ayant embrassé la réformation, ils trouvèrent, avec d'autres familles du même pays, l'hospitalité à Zurich ; ils s'établirent ensuite dans cette ville et à Berne. Jean de Muralt, chirurgien habile, fut reçu bourgeois de Zurich en 1566. De ses descendants, plusieurs ont cultivé la médecine ; et celui dont il s'agit fit ses études en Allemagne, en France et en Angleterre. Il fut créé docteur à Bâle en 1671 et devint médecin de la ville et professeur en physique et en mathématiques à Zurich. Il fut habile dans son art et savant distingué ; le nombre de ses écrits est considérable, sans parler du grand nombre de Mémoires et d'observations qu'il fit insérer dans les Ephemerides naturœ curiosorum.
 On ne citera que les principaux : 
